--- a/data/countries/montserrat.xlsx
+++ b/data/countries/montserrat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC87E4-0A6E-AB4C-B73A-C0DD120338D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D478F-AE14-F245-97D9-F70E2371EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16560" xr2:uid="{778436DC-8893-564E-A906-0A290946321C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16560" activeTab="1" xr2:uid="{778436DC-8893-564E-A906-0A290946321C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>yr</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Converted from million East Caribbean dollars (XCD) to U.S. dollars (USD)</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>Includes overnight and same-day visitors, converted from 1,000s to number</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/814814/montserrat-tourism-revenue</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -263,6 +266,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F833B29D-547E-404B-B87E-22C656DA18E7}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -617,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="8">
-        <v>45018</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -631,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -639,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -648,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -683,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -707,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -723,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -734,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -774,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -789,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2CEC5D-5F79-5546-A0F6-F3087CFE2132}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,9 +1067,25 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>1357</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f>E14/D14</f>
+        <v>5.1584377302873984E-3</v>
+      </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
